--- a/Frontend/src/excelformate/tbl_location_master.xlsx
+++ b/Frontend/src/excelformate/tbl_location_master.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
   <si>
     <t>location_name</t>
   </si>
@@ -48,7 +54,7 @@
     <font>
       <sz val="8.0"/>
       <color theme="1"/>
-      <name val="&quot;Liberation Sans&quot;"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +76,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,6 +316,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
